--- a/bookkeeper1.xlsx
+++ b/bookkeeper1.xlsx
@@ -831,7 +831,7 @@
         <v>10.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
         <v>680.0</v>
@@ -872,7 +872,7 @@
         <v>28.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="n">
         <v>1402.0</v>
@@ -913,7 +913,7 @@
         <v>6.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G4" t="n">
         <v>80.0</v>
@@ -954,7 +954,7 @@
         <v>8.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>54.0</v>
@@ -995,7 +995,7 @@
         <v>18.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n">
         <v>292.0</v>
@@ -1036,7 +1036,7 @@
         <v>10.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" t="n">
         <v>172.0</v>
@@ -1077,7 +1077,7 @@
         <v>14.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" t="n">
         <v>170.0</v>
@@ -1118,7 +1118,7 @@
         <v>10.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" t="n">
         <v>70.0</v>
@@ -1159,7 +1159,7 @@
         <v>6.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" t="n">
         <v>26.0</v>
@@ -1200,7 +1200,7 @@
         <v>2.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -1241,7 +1241,7 @@
         <v>10.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" t="n">
         <v>286.0</v>
@@ -1282,7 +1282,7 @@
         <v>8.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G13" t="n">
         <v>62.0</v>
@@ -1323,7 +1323,7 @@
         <v>8.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" t="n">
         <v>16.0</v>
@@ -1364,7 +1364,7 @@
         <v>18.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15" t="n">
         <v>1260.0</v>
@@ -1405,7 +1405,7 @@
         <v>12.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G16" t="n">
         <v>1862.0</v>
@@ -1446,7 +1446,7 @@
         <v>4.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G17" t="n">
         <v>6.0</v>
@@ -1487,7 +1487,7 @@
         <v>10.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G18" t="n">
         <v>46.0</v>
@@ -1528,7 +1528,7 @@
         <v>6.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G19" t="n">
         <v>10.0</v>
@@ -1569,7 +1569,7 @@
         <v>16.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G20" t="n">
         <v>86.0</v>
@@ -1610,7 +1610,7 @@
         <v>8.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G21" t="n">
         <v>24.0</v>
@@ -1651,7 +1651,7 @@
         <v>6.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" t="n">
         <v>100.0</v>
@@ -1692,7 +1692,7 @@
         <v>24.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G23" t="n">
         <v>1830.0</v>
@@ -1733,7 +1733,7 @@
         <v>14.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G24" t="n">
         <v>180.0</v>
@@ -1774,7 +1774,7 @@
         <v>18.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G25" t="n">
         <v>184.0</v>
@@ -1815,7 +1815,7 @@
         <v>12.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G26" t="n">
         <v>92.0</v>
@@ -1856,7 +1856,7 @@
         <v>8.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G27" t="n">
         <v>18.0</v>
@@ -1897,7 +1897,7 @@
         <v>8.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G28" t="n">
         <v>88.0</v>
@@ -1938,7 +1938,7 @@
         <v>8.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G29" t="n">
         <v>46.0</v>
@@ -1979,7 +1979,7 @@
         <v>12.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G30" t="n">
         <v>254.0</v>
@@ -2020,7 +2020,7 @@
         <v>2.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
         <v>156.0</v>
@@ -2061,7 +2061,7 @@
         <v>4.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G32" t="n">
         <v>2.0</v>
@@ -2102,7 +2102,7 @@
         <v>4.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G33" t="n">
         <v>2.0</v>
@@ -2143,7 +2143,7 @@
         <v>4.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" t="n">
         <v>212.0</v>
@@ -2184,7 +2184,7 @@
         <v>8.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G35" t="n">
         <v>448.0</v>
@@ -2225,7 +2225,7 @@
         <v>8.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G36" t="n">
         <v>794.0</v>
@@ -2266,7 +2266,7 @@
         <v>4.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
         <v>510.0</v>
@@ -2307,7 +2307,7 @@
         <v>2.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G38" t="n">
         <v>386.0</v>
@@ -2348,7 +2348,7 @@
         <v>2.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
         <v>1028.0</v>
@@ -2389,7 +2389,7 @@
         <v>2.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
         <v>408.0</v>
@@ -2430,7 +2430,7 @@
         <v>2.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" t="n">
         <v>288.0</v>
@@ -2471,7 +2471,7 @@
         <v>2.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
         <v>196.0</v>
@@ -2512,7 +2512,7 @@
         <v>14.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G43" t="n">
         <v>50.0</v>
@@ -2553,7 +2553,7 @@
         <v>8.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G44" t="n">
         <v>174.0</v>
@@ -2594,7 +2594,7 @@
         <v>22.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G45" t="n">
         <v>560.0</v>
@@ -2635,7 +2635,7 @@
         <v>6.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G46" t="n">
         <v>164.0</v>
@@ -2676,7 +2676,7 @@
         <v>16.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G47" t="n">
         <v>70.0</v>
@@ -2717,7 +2717,7 @@
         <v>18.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G48" t="n">
         <v>220.0</v>
@@ -2758,7 +2758,7 @@
         <v>2.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -2799,7 +2799,7 @@
         <v>6.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G50" t="n">
         <v>22.0</v>
@@ -2840,7 +2840,7 @@
         <v>6.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G51" t="n">
         <v>22.0</v>
@@ -2881,7 +2881,7 @@
         <v>12.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G52" t="n">
         <v>142.0</v>
@@ -2922,7 +2922,7 @@
         <v>12.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G53" t="n">
         <v>466.0</v>
@@ -2963,7 +2963,7 @@
         <v>6.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G54" t="n">
         <v>10.0</v>
@@ -3004,7 +3004,7 @@
         <v>4.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G55" t="n">
         <v>10.0</v>
@@ -3045,7 +3045,7 @@
         <v>4.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G56" t="n">
         <v>8.0</v>
@@ -3086,7 +3086,7 @@
         <v>6.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G57" t="n">
         <v>22.0</v>
@@ -3127,7 +3127,7 @@
         <v>6.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G58" t="n">
         <v>8.0</v>
@@ -3168,7 +3168,7 @@
         <v>2.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G59" t="n">
         <v>188.0</v>
@@ -3209,7 +3209,7 @@
         <v>2.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G60" t="n">
         <v>84.0</v>
@@ -3250,7 +3250,7 @@
         <v>6.0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G61" t="n">
         <v>112.0</v>
@@ -3291,7 +3291,7 @@
         <v>4.0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G62" t="n">
         <v>134.0</v>
@@ -3332,7 +3332,7 @@
         <v>4.0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G63" t="n">
         <v>514.0</v>
@@ -3373,7 +3373,7 @@
         <v>6.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G64" t="n">
         <v>278.0</v>
@@ -3414,7 +3414,7 @@
         <v>8.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G65" t="n">
         <v>300.0</v>
@@ -3455,7 +3455,7 @@
         <v>6.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G66" t="n">
         <v>362.0</v>
@@ -3496,7 +3496,7 @@
         <v>4.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G67" t="n">
         <v>94.0</v>
@@ -3537,7 +3537,7 @@
         <v>10.0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G68" t="n">
         <v>274.0</v>
@@ -3578,7 +3578,7 @@
         <v>6.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G69" t="n">
         <v>304.0</v>
@@ -3619,7 +3619,7 @@
         <v>4.0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G70" t="n">
         <v>118.0</v>
@@ -3660,7 +3660,7 @@
         <v>4.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G71" t="n">
         <v>304.0</v>
@@ -3701,7 +3701,7 @@
         <v>4.0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G72" t="n">
         <v>156.0</v>
@@ -3742,7 +3742,7 @@
         <v>2.0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G73" t="n">
         <v>74.0</v>
@@ -3783,7 +3783,7 @@
         <v>4.0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G74" t="n">
         <v>80.0</v>
@@ -3824,7 +3824,7 @@
         <v>4.0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G75" t="n">
         <v>80.0</v>
@@ -3865,7 +3865,7 @@
         <v>8.0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G76" t="n">
         <v>214.0</v>
@@ -3906,7 +3906,7 @@
         <v>8.0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G77" t="n">
         <v>156.0</v>
@@ -3947,7 +3947,7 @@
         <v>6.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G78" t="n">
         <v>182.0</v>
@@ -3988,7 +3988,7 @@
         <v>8.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G79" t="n">
         <v>246.0</v>
@@ -4029,7 +4029,7 @@
         <v>12.0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G80" t="n">
         <v>828.0</v>
@@ -4070,7 +4070,7 @@
         <v>8.0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G81" t="n">
         <v>186.0</v>
@@ -4111,7 +4111,7 @@
         <v>2.0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G82" t="n">
         <v>144.0</v>
@@ -4152,7 +4152,7 @@
         <v>6.0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G83" t="n">
         <v>126.0</v>
@@ -4193,7 +4193,7 @@
         <v>8.0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G84" t="n">
         <v>260.0</v>
@@ -4234,7 +4234,7 @@
         <v>2.0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G85" t="n">
         <v>28.0</v>
@@ -4275,7 +4275,7 @@
         <v>10.0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G86" t="n">
         <v>486.0</v>
@@ -4316,7 +4316,7 @@
         <v>8.0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G87" t="n">
         <v>1290.0</v>
@@ -4357,7 +4357,7 @@
         <v>10.0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G88" t="n">
         <v>780.0</v>
@@ -4398,7 +4398,7 @@
         <v>8.0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G89" t="n">
         <v>216.0</v>
@@ -4439,7 +4439,7 @@
         <v>2.0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G90" t="n">
         <v>82.0</v>
@@ -4480,7 +4480,7 @@
         <v>4.0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G91" t="n">
         <v>158.0</v>
@@ -4521,7 +4521,7 @@
         <v>6.0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G92" t="n">
         <v>110.0</v>
@@ -4562,7 +4562,7 @@
         <v>4.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G93" t="n">
         <v>102.0</v>
@@ -4603,7 +4603,7 @@
         <v>8.0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G94" t="n">
         <v>406.0</v>
@@ -4644,7 +4644,7 @@
         <v>2.0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G95" t="n">
         <v>98.0</v>
@@ -4685,7 +4685,7 @@
         <v>2.0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G96" t="n">
         <v>100.0</v>
@@ -4726,7 +4726,7 @@
         <v>4.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G97" t="n">
         <v>200.0</v>
@@ -4767,7 +4767,7 @@
         <v>2.0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G98" t="n">
         <v>276.0</v>
@@ -4808,7 +4808,7 @@
         <v>2.0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G99" t="n">
         <v>86.0</v>
@@ -4849,7 +4849,7 @@
         <v>2.0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G100" t="n">
         <v>84.0</v>
@@ -4890,7 +4890,7 @@
         <v>2.0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G101" t="n">
         <v>112.0</v>
@@ -4931,7 +4931,7 @@
         <v>4.0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G102" t="n">
         <v>326.0</v>
@@ -4972,7 +4972,7 @@
         <v>4.0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G103" t="n">
         <v>24444.0</v>
@@ -5013,7 +5013,7 @@
         <v>4.0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G104" t="n">
         <v>310.0</v>
@@ -5054,7 +5054,7 @@
         <v>2.0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G105" t="n">
         <v>86.0</v>
@@ -5095,7 +5095,7 @@
         <v>4.0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G106" t="n">
         <v>84.0</v>
@@ -5136,7 +5136,7 @@
         <v>6.0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G107" t="n">
         <v>310.0</v>
@@ -5177,7 +5177,7 @@
         <v>10.0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G108" t="n">
         <v>296.0</v>
@@ -5218,7 +5218,7 @@
         <v>8.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G109" t="n">
         <v>252.0</v>
@@ -5259,7 +5259,7 @@
         <v>6.0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G110" t="n">
         <v>302.0</v>
@@ -5300,7 +5300,7 @@
         <v>2.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G111" t="n">
         <v>90.0</v>
@@ -5341,7 +5341,7 @@
         <v>4.0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G112" t="n">
         <v>580.0</v>
@@ -5382,7 +5382,7 @@
         <v>4.0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G113" t="n">
         <v>70.0</v>
@@ -5423,7 +5423,7 @@
         <v>2.0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G114" t="n">
         <v>222.0</v>
@@ -5464,7 +5464,7 @@
         <v>4.0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G115" t="n">
         <v>72.0</v>
@@ -5505,7 +5505,7 @@
         <v>2.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G116" t="n">
         <v>162.0</v>
@@ -5546,7 +5546,7 @@
         <v>2.0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G117" t="n">
         <v>54.0</v>
@@ -5587,7 +5587,7 @@
         <v>2.0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G118" t="n">
         <v>56.0</v>
@@ -5628,7 +5628,7 @@
         <v>4.0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G119" t="n">
         <v>60.0</v>
@@ -5669,7 +5669,7 @@
         <v>8.0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G120" t="n">
         <v>1200.0</v>
@@ -5710,7 +5710,7 @@
         <v>4.0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G121" t="n">
         <v>160.0</v>
@@ -5751,7 +5751,7 @@
         <v>4.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G122" t="n">
         <v>60.0</v>
@@ -5792,7 +5792,7 @@
         <v>4.0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G123" t="n">
         <v>130.0</v>
@@ -5833,7 +5833,7 @@
         <v>4.0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G124" t="n">
         <v>80.0</v>
@@ -5874,7 +5874,7 @@
         <v>4.0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G125" t="n">
         <v>158.0</v>
@@ -5915,7 +5915,7 @@
         <v>6.0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G126" t="n">
         <v>330.0</v>
@@ -5956,7 +5956,7 @@
         <v>4.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G127" t="n">
         <v>146.0</v>
@@ -5997,7 +5997,7 @@
         <v>12.0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G128" t="n">
         <v>800.0</v>
@@ -6038,7 +6038,7 @@
         <v>4.0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G129" t="n">
         <v>156.0</v>
@@ -6079,7 +6079,7 @@
         <v>6.0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G130" t="n">
         <v>326.0</v>
@@ -6120,7 +6120,7 @@
         <v>6.0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G131" t="n">
         <v>1772.0</v>
@@ -6161,7 +6161,7 @@
         <v>4.0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G132" t="n">
         <v>152.0</v>
@@ -6202,7 +6202,7 @@
         <v>6.0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G133" t="n">
         <v>194.0</v>
@@ -6243,7 +6243,7 @@
         <v>2.0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G134" t="n">
         <v>44.0</v>
@@ -6284,7 +6284,7 @@
         <v>6.0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G135" t="n">
         <v>878.0</v>
@@ -6325,7 +6325,7 @@
         <v>2.0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G136" t="n">
         <v>124.0</v>
@@ -6366,7 +6366,7 @@
         <v>4.0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G137" t="n">
         <v>192.0</v>
@@ -6407,7 +6407,7 @@
         <v>4.0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G138" t="n">
         <v>56.0</v>
@@ -6448,7 +6448,7 @@
         <v>4.0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G139" t="n">
         <v>118.0</v>
@@ -6489,7 +6489,7 @@
         <v>4.0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G140" t="n">
         <v>158.0</v>
@@ -6530,7 +6530,7 @@
         <v>6.0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G141" t="n">
         <v>1484.0</v>
@@ -6571,7 +6571,7 @@
         <v>4.0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G142" t="n">
         <v>134.0</v>
@@ -6612,7 +6612,7 @@
         <v>2.0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G143" t="n">
         <v>74.0</v>
@@ -6653,7 +6653,7 @@
         <v>4.0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G144" t="n">
         <v>130.0</v>
@@ -6694,7 +6694,7 @@
         <v>4.0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G145" t="n">
         <v>254.0</v>
@@ -6735,7 +6735,7 @@
         <v>8.0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G146" t="n">
         <v>334.0</v>
@@ -6776,7 +6776,7 @@
         <v>4.0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G147" t="n">
         <v>82.0</v>
@@ -6817,7 +6817,7 @@
         <v>4.0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G148" t="n">
         <v>120.0</v>
@@ -6858,7 +6858,7 @@
         <v>2.0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G149" t="n">
         <v>124.0</v>
@@ -6899,7 +6899,7 @@
         <v>8.0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G150" t="n">
         <v>284.0</v>
@@ -6940,7 +6940,7 @@
         <v>4.0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G151" t="n">
         <v>152.0</v>
@@ -6981,7 +6981,7 @@
         <v>6.0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G152" t="n">
         <v>172.0</v>
@@ -7022,7 +7022,7 @@
         <v>2.0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G153" t="n">
         <v>148.0</v>
@@ -7063,7 +7063,7 @@
         <v>4.0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G154" t="n">
         <v>100.0</v>
@@ -7104,7 +7104,7 @@
         <v>4.0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G155" t="n">
         <v>122.0</v>
@@ -7145,7 +7145,7 @@
         <v>6.0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G156" t="n">
         <v>152.0</v>
@@ -7186,7 +7186,7 @@
         <v>8.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G157" t="n">
         <v>404.0</v>
@@ -7227,7 +7227,7 @@
         <v>2.0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G158" t="n">
         <v>106.0</v>
@@ -7268,7 +7268,7 @@
         <v>8.0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G159" t="n">
         <v>944.0</v>
@@ -7309,7 +7309,7 @@
         <v>2.0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G160" t="n">
         <v>78.0</v>
@@ -7350,7 +7350,7 @@
         <v>4.0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G161" t="n">
         <v>164.0</v>
@@ -7391,7 +7391,7 @@
         <v>4.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G162" t="n">
         <v>130.0</v>
@@ -7432,7 +7432,7 @@
         <v>4.0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G163" t="n">
         <v>64.0</v>
@@ -7473,7 +7473,7 @@
         <v>4.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G164" t="n">
         <v>122.0</v>
@@ -7514,7 +7514,7 @@
         <v>4.0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G165" t="n">
         <v>222.0</v>
@@ -7555,7 +7555,7 @@
         <v>2.0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G166" t="n">
         <v>64.0</v>
@@ -7596,7 +7596,7 @@
         <v>6.0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G167" t="n">
         <v>558.0</v>
@@ -7637,7 +7637,7 @@
         <v>8.0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G168" t="n">
         <v>416.0</v>
@@ -7678,7 +7678,7 @@
         <v>4.0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G169" t="n">
         <v>162.0</v>
@@ -7719,7 +7719,7 @@
         <v>2.0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G170" t="n">
         <v>56.0</v>
@@ -7760,7 +7760,7 @@
         <v>4.0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G171" t="n">
         <v>108.0</v>
@@ -7801,7 +7801,7 @@
         <v>6.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G172" t="n">
         <v>1012.0</v>
@@ -7842,7 +7842,7 @@
         <v>4.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G173" t="n">
         <v>268.0</v>
@@ -7883,7 +7883,7 @@
         <v>2.0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G174" t="n">
         <v>70.0</v>
@@ -7924,7 +7924,7 @@
         <v>4.0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G175" t="n">
         <v>198.0</v>
@@ -7965,7 +7965,7 @@
         <v>6.0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G176" t="n">
         <v>188.0</v>
@@ -8006,7 +8006,7 @@
         <v>6.0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G177" t="n">
         <v>454.0</v>
@@ -8047,7 +8047,7 @@
         <v>4.0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G178" t="n">
         <v>568.0</v>
@@ -8088,7 +8088,7 @@
         <v>10.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G179" t="n">
         <v>1068.0</v>
@@ -8170,7 +8170,7 @@
         <v>4.0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G181" t="n">
         <v>610.0</v>
@@ -8211,7 +8211,7 @@
         <v>40.0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G182" t="n">
         <v>1160.0</v>
@@ -8252,7 +8252,7 @@
         <v>4.0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G183" t="n">
         <v>106.0</v>
@@ -8293,7 +8293,7 @@
         <v>4.0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G184" t="n">
         <v>126.0</v>
@@ -8334,7 +8334,7 @@
         <v>4.0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G185" t="n">
         <v>66.0</v>
@@ -8416,7 +8416,7 @@
         <v>4.0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G187" t="n">
         <v>404.0</v>
@@ -8457,7 +8457,7 @@
         <v>24.0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G188" t="n">
         <v>750.0</v>
@@ -8498,7 +8498,7 @@
         <v>2.0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G189" t="n">
         <v>80.0</v>
@@ -8539,7 +8539,7 @@
         <v>8.0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G190" t="n">
         <v>260.0</v>
@@ -8580,7 +8580,7 @@
         <v>8.0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G191" t="n">
         <v>802.0</v>
@@ -8621,7 +8621,7 @@
         <v>14.0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G192" t="n">
         <v>1090.0</v>
@@ -8662,7 +8662,7 @@
         <v>2.0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G193" t="n">
         <v>64.0</v>
@@ -8703,7 +8703,7 @@
         <v>4.0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G194" t="n">
         <v>148.0</v>
@@ -8744,7 +8744,7 @@
         <v>8.0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G195" t="n">
         <v>422.0</v>
@@ -8785,7 +8785,7 @@
         <v>6.0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G196" t="n">
         <v>1178.0</v>
@@ -8826,7 +8826,7 @@
         <v>6.0</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G197" t="n">
         <v>322.0</v>
@@ -8867,7 +8867,7 @@
         <v>16.0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G198" t="n">
         <v>256.0</v>
@@ -8908,7 +8908,7 @@
         <v>4.0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G199" t="n">
         <v>160.0</v>
@@ -8949,7 +8949,7 @@
         <v>18.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G200" t="n">
         <v>1808.0</v>
@@ -8990,7 +8990,7 @@
         <v>2.0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G201" t="n">
         <v>120.0</v>
@@ -9031,7 +9031,7 @@
         <v>10.0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G202" t="n">
         <v>148.0</v>
@@ -9072,7 +9072,7 @@
         <v>4.0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G203" t="n">
         <v>236.0</v>
@@ -9113,7 +9113,7 @@
         <v>4.0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G204" t="n">
         <v>110.0</v>
@@ -9154,7 +9154,7 @@
         <v>4.0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G205" t="n">
         <v>18.0</v>
@@ -9195,7 +9195,7 @@
         <v>2.0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G206" t="n">
         <v>182.0</v>
@@ -9277,7 +9277,7 @@
         <v>2.0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G208" t="n">
         <v>24.0</v>
@@ -9318,7 +9318,7 @@
         <v>2.0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G209" t="n">
         <v>22.0</v>
@@ -9359,7 +9359,7 @@
         <v>10.0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G210" t="n">
         <v>50.0</v>
@@ -9400,7 +9400,7 @@
         <v>16.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G211" t="n">
         <v>428.0</v>
@@ -9441,7 +9441,7 @@
         <v>12.0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G212" t="n">
         <v>222.0</v>
@@ -9482,7 +9482,7 @@
         <v>2.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G213" t="n">
         <v>18.0</v>
@@ -9523,7 +9523,7 @@
         <v>6.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G214" t="n">
         <v>16.0</v>
@@ -9564,7 +9564,7 @@
         <v>2.0</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G215" t="n">
         <v>26.0</v>
@@ -9605,7 +9605,7 @@
         <v>4.0</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G216" t="n">
         <v>52.0</v>
@@ -9728,7 +9728,7 @@
         <v>18.0</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G219" t="n">
         <v>442.0</v>
@@ -9769,7 +9769,7 @@
         <v>10.0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G220" t="n">
         <v>140.0</v>
@@ -9810,7 +9810,7 @@
         <v>2.0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G221" t="n">
         <v>10.0</v>
@@ -9851,7 +9851,7 @@
         <v>12.0</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G222" t="n">
         <v>60.0</v>
@@ -9892,7 +9892,7 @@
         <v>2.0</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G223" t="n">
         <v>52.0</v>
@@ -9933,7 +9933,7 @@
         <v>4.0</v>
       </c>
       <c r="F224" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G224" t="n">
         <v>10.0</v>
@@ -9974,7 +9974,7 @@
         <v>6.0</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G225" t="n">
         <v>34.0</v>
@@ -10015,7 +10015,7 @@
         <v>10.0</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G226" t="n">
         <v>118.0</v>
@@ -10056,7 +10056,7 @@
         <v>2.0</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G227" t="n">
         <v>4.0</v>
@@ -10097,7 +10097,7 @@
         <v>2.0</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G228" t="n">
         <v>50.0</v>
@@ -10179,7 +10179,7 @@
         <v>4.0</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G230" t="n">
         <v>20.0</v>
@@ -10220,7 +10220,7 @@
         <v>6.0</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G231" t="n">
         <v>122.0</v>
@@ -10261,7 +10261,7 @@
         <v>12.0</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G232" t="n">
         <v>364.0</v>
@@ -10302,7 +10302,7 @@
         <v>2.0</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G233" t="n">
         <v>54.0</v>
@@ -10343,7 +10343,7 @@
         <v>4.0</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G234" t="n">
         <v>178.0</v>
@@ -10384,7 +10384,7 @@
         <v>8.0</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G235" t="n">
         <v>72.0</v>
@@ -10425,7 +10425,7 @@
         <v>4.0</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G236" t="n">
         <v>24.0</v>
@@ -10466,7 +10466,7 @@
         <v>8.0</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G237" t="n">
         <v>58.0</v>
@@ -10507,7 +10507,7 @@
         <v>2.0</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G238" t="n">
         <v>10.0</v>
@@ -10548,7 +10548,7 @@
         <v>2.0</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G239" t="n">
         <v>10.0</v>
@@ -10589,7 +10589,7 @@
         <v>2.0</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G240" t="n">
         <v>2.0</v>
@@ -10630,7 +10630,7 @@
         <v>2.0</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G241" t="n">
         <v>264.0</v>
@@ -10671,7 +10671,7 @@
         <v>2.0</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G242" t="n">
         <v>472.0</v>
@@ -10712,7 +10712,7 @@
         <v>6.0</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G243" t="n">
         <v>98.0</v>
@@ -10753,7 +10753,7 @@
         <v>6.0</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G244" t="n">
         <v>40.0</v>
@@ -10794,7 +10794,7 @@
         <v>18.0</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G245" t="n">
         <v>306.0</v>
@@ -10835,7 +10835,7 @@
         <v>2.0</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G246" t="n">
         <v>180.0</v>
@@ -10876,7 +10876,7 @@
         <v>2.0</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G247" t="n">
         <v>116.0</v>
@@ -10958,7 +10958,7 @@
         <v>8.0</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G249" t="n">
         <v>18.0</v>
@@ -10999,7 +10999,7 @@
         <v>20.0</v>
       </c>
       <c r="F250" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G250" t="n">
         <v>386.0</v>
@@ -11163,7 +11163,7 @@
         <v>2.0</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G254" t="n">
         <v>4.0</v>
@@ -11204,7 +11204,7 @@
         <v>4.0</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G255" t="n">
         <v>1332.0</v>
@@ -11245,7 +11245,7 @@
         <v>2.0</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G256" t="n">
         <v>110.0</v>
@@ -11286,7 +11286,7 @@
         <v>10.0</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G257" t="n">
         <v>218.0</v>
@@ -11696,7 +11696,7 @@
         <v>6.0</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G267" t="n">
         <v>172.0</v>
@@ -11737,7 +11737,7 @@
         <v>2.0</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G268" t="n">
         <v>6.0</v>
@@ -11778,7 +11778,7 @@
         <v>2.0</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G269" t="n">
         <v>8.0</v>
@@ -11819,7 +11819,7 @@
         <v>2.0</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G270" t="n">
         <v>30.0</v>
@@ -11901,7 +11901,7 @@
         <v>2.0</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G272" t="n">
         <v>118.0</v>
@@ -11942,7 +11942,7 @@
         <v>2.0</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G273" t="n">
         <v>26.0</v>
@@ -12024,7 +12024,7 @@
         <v>2.0</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G275" t="n">
         <v>18.0</v>
@@ -12106,7 +12106,7 @@
         <v>2.0</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G277" t="n">
         <v>72.0</v>
@@ -12393,7 +12393,7 @@
         <v>2.0</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G284" t="n">
         <v>28.0</v>
@@ -12434,7 +12434,7 @@
         <v>2.0</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G285" t="n">
         <v>84.0</v>
@@ -12598,7 +12598,7 @@
         <v>2.0</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G289" t="n">
         <v>14.0</v>
@@ -12639,7 +12639,7 @@
         <v>2.0</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G290" t="n">
         <v>10.0</v>
@@ -12680,7 +12680,7 @@
         <v>2.0</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G291" t="n">
         <v>24.0</v>
@@ -12721,7 +12721,7 @@
         <v>8.0</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G292" t="n">
         <v>240.0</v>
@@ -12762,7 +12762,7 @@
         <v>2.0</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G293" t="n">
         <v>2.0</v>
@@ -12803,7 +12803,7 @@
         <v>2.0</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G294" t="n">
         <v>10.0</v>
@@ -12926,7 +12926,7 @@
         <v>2.0</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G297" t="n">
         <v>18.0</v>
@@ -13172,7 +13172,7 @@
         <v>2.0</v>
       </c>
       <c r="F303" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G303" t="n">
         <v>10.0</v>
@@ -13295,7 +13295,7 @@
         <v>2.0</v>
       </c>
       <c r="F306" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G306" t="n">
         <v>6.0</v>
@@ -13377,7 +13377,7 @@
         <v>2.0</v>
       </c>
       <c r="F308" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G308" t="n">
         <v>13008.0</v>
@@ -13459,7 +13459,7 @@
         <v>2.0</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G310" t="n">
         <v>2.0</v>
@@ -13541,7 +13541,7 @@
         <v>4.0</v>
       </c>
       <c r="F312" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G312" t="n">
         <v>856.0</v>
@@ -13582,7 +13582,7 @@
         <v>4.0</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G313" t="n">
         <v>2114.0</v>
@@ -13623,7 +13623,7 @@
         <v>2.0</v>
       </c>
       <c r="F314" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G314" t="n">
         <v>184.0</v>
@@ -13664,7 +13664,7 @@
         <v>4.0</v>
       </c>
       <c r="F315" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G315" t="n">
         <v>714.0</v>
@@ -13705,7 +13705,7 @@
         <v>6.0</v>
       </c>
       <c r="F316" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G316" t="n">
         <v>814.0</v>
@@ -13951,7 +13951,7 @@
         <v>4.0</v>
       </c>
       <c r="F322" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G322" t="n">
         <v>24.0</v>
@@ -13992,7 +13992,7 @@
         <v>2.0</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G323" t="n">
         <v>2.0</v>
@@ -14115,7 +14115,7 @@
         <v>2.0</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G326" t="n">
         <v>8.0</v>
@@ -14238,7 +14238,7 @@
         <v>4.0</v>
       </c>
       <c r="F329" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G329" t="n">
         <v>14.0</v>
@@ -14279,7 +14279,7 @@
         <v>4.0</v>
       </c>
       <c r="F330" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G330" t="n">
         <v>22.0</v>
@@ -14320,7 +14320,7 @@
         <v>2.0</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G331" t="n">
         <v>6.0</v>
@@ -14402,7 +14402,7 @@
         <v>2.0</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G333" t="n">
         <v>16.0</v>
@@ -14484,7 +14484,7 @@
         <v>4.0</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G335" t="n">
         <v>104.0</v>
@@ -14525,7 +14525,7 @@
         <v>2.0</v>
       </c>
       <c r="F336" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G336" t="n">
         <v>62.0</v>
@@ -14566,7 +14566,7 @@
         <v>2.0</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G337" t="n">
         <v>18.0</v>
@@ -14607,7 +14607,7 @@
         <v>2.0</v>
       </c>
       <c r="F338" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G338" t="n">
         <v>28.0</v>
@@ -14648,7 +14648,7 @@
         <v>2.0</v>
       </c>
       <c r="F339" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G339" t="n">
         <v>20.0</v>
@@ -14689,7 +14689,7 @@
         <v>2.0</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G340" t="n">
         <v>74.0</v>
@@ -14730,7 +14730,7 @@
         <v>2.0</v>
       </c>
       <c r="F341" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G341" t="n">
         <v>54.0</v>
@@ -14771,7 +14771,7 @@
         <v>2.0</v>
       </c>
       <c r="F342" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G342" t="n">
         <v>96.0</v>
@@ -14812,7 +14812,7 @@
         <v>6.0</v>
       </c>
       <c r="F343" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G343" t="n">
         <v>158.0</v>
@@ -14853,7 +14853,7 @@
         <v>2.0</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G344" t="n">
         <v>154.0</v>
@@ -14894,7 +14894,7 @@
         <v>2.0</v>
       </c>
       <c r="F345" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G345" t="n">
         <v>126.0</v>
@@ -14976,7 +14976,7 @@
         <v>4.0</v>
       </c>
       <c r="F347" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G347" t="n">
         <v>386.0</v>
@@ -15017,7 +15017,7 @@
         <v>2.0</v>
       </c>
       <c r="F348" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G348" t="n">
         <v>2.0</v>
@@ -15058,7 +15058,7 @@
         <v>6.0</v>
       </c>
       <c r="F349" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G349" t="n">
         <v>414.0</v>
@@ -15222,7 +15222,7 @@
         <v>4.0</v>
       </c>
       <c r="F353" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G353" t="n">
         <v>124.0</v>
@@ -15304,7 +15304,7 @@
         <v>2.0</v>
       </c>
       <c r="F355" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G355" t="n">
         <v>6.0</v>
@@ -15468,7 +15468,7 @@
         <v>6.0</v>
       </c>
       <c r="F359" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G359" t="n">
         <v>86.0</v>
@@ -15509,7 +15509,7 @@
         <v>2.0</v>
       </c>
       <c r="F360" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G360" t="n">
         <v>128.0</v>
@@ -15550,7 +15550,7 @@
         <v>2.0</v>
       </c>
       <c r="F361" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G361" t="n">
         <v>90.0</v>
@@ -15755,7 +15755,7 @@
         <v>4.0</v>
       </c>
       <c r="F366" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G366" t="n">
         <v>42.0</v>
@@ -15796,7 +15796,7 @@
         <v>2.0</v>
       </c>
       <c r="F367" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G367" t="n">
         <v>4.0</v>
@@ -15919,7 +15919,7 @@
         <v>2.0</v>
       </c>
       <c r="F370" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G370" t="n">
         <v>8.0</v>
@@ -15960,7 +15960,7 @@
         <v>2.0</v>
       </c>
       <c r="F371" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G371" t="n">
         <v>2.0</v>
@@ -16165,7 +16165,7 @@
         <v>2.0</v>
       </c>
       <c r="F376" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G376" t="n">
         <v>36.0</v>
@@ -16206,7 +16206,7 @@
         <v>6.0</v>
       </c>
       <c r="F377" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G377" t="n">
         <v>506.0</v>
@@ -16288,7 +16288,7 @@
         <v>8.0</v>
       </c>
       <c r="F379" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G379" t="n">
         <v>370.0</v>
@@ -16411,7 +16411,7 @@
         <v>2.0</v>
       </c>
       <c r="F382" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G382" t="n">
         <v>48.0</v>
@@ -16534,7 +16534,7 @@
         <v>2.0</v>
       </c>
       <c r="F385" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G385" t="n">
         <v>8.0</v>
@@ -16575,7 +16575,7 @@
         <v>2.0</v>
       </c>
       <c r="F386" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G386" t="n">
         <v>2.0</v>
@@ -16657,7 +16657,7 @@
         <v>2.0</v>
       </c>
       <c r="F388" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G388" t="n">
         <v>8.0</v>
@@ -16698,7 +16698,7 @@
         <v>2.0</v>
       </c>
       <c r="F389" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G389" t="n">
         <v>10.0</v>
@@ -16780,7 +16780,7 @@
         <v>2.0</v>
       </c>
       <c r="F391" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G391" t="n">
         <v>10.0</v>
@@ -16821,7 +16821,7 @@
         <v>4.0</v>
       </c>
       <c r="F392" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G392" t="n">
         <v>36.0</v>
@@ -16903,7 +16903,7 @@
         <v>2.0</v>
       </c>
       <c r="F394" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G394" t="n">
         <v>2.0</v>
